--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:18:00+00:00</t>
+    <t>2022-12-08T13:19:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-08T13:19:01+00:00</t>
+    <t>2022-12-09T07:59:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-09T07:59:59+00:00</t>
+    <t>2022-12-25T17:31:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>specialization</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
   <si>
     <t>Path</t>
@@ -749,7 +752,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AK18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -759,41 +762,41 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.26953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="42.26953125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="50.0546875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.8984375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.59375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.88671875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="19.625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="35.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -905,133 +908,139 @@
       <c r="AJ1" t="s" s="1">
         <v>70</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>7</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>72</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
         <v>76</v>
       </c>
+      <c r="B3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
         <v>78</v>
@@ -1039,99 +1048,102 @@
       <c r="L3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="M3" s="2"/>
+      <c r="M3" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>83</v>
@@ -1139,399 +1151,411 @@
       <c r="L4" t="s" s="2">
         <v>84</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>85</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="L5" t="s" s="2">
         <v>28</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>88</v>
+      </c>
       <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
         <v>91</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="M6" s="2"/>
+        <v>92</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
         <v>95</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="M7" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>96</v>
+      </c>
       <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>76</v>
+        <v>97</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
         <v>99</v>
@@ -1539,99 +1563,102 @@
       <c r="L8" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N8" s="2"/>
-      <c r="O8" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P8" s="2"/>
-      <c r="Q8" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>72</v>
+        <v>102</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK8" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
         <v>104</v>
@@ -1639,499 +1666,514 @@
       <c r="L9" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" t="s" s="2">
+        <v>106</v>
+      </c>
       <c r="N9" s="2"/>
-      <c r="O9" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P9" s="2"/>
-      <c r="Q9" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>106</v>
+        <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>72</v>
+        <v>107</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK9" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" t="s" s="2">
+        <v>110</v>
+      </c>
       <c r="N10" s="2"/>
-      <c r="O10" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P10" s="2"/>
-      <c r="Q10" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK10" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
       <c r="N11" s="2"/>
-      <c r="O11" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P11" s="2"/>
-      <c r="Q11" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK11" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" t="s" s="2">
+        <v>117</v>
+      </c>
       <c r="N12" s="2"/>
-      <c r="O12" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P12" s="2"/>
-      <c r="Q12" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="B13" s="2"/>
-      <c r="C13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="L13" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>121</v>
+      </c>
       <c r="N13" s="2"/>
-      <c r="O13" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P13" s="2"/>
-      <c r="Q13" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>121</v>
+        <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK13" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="B14" s="2"/>
-      <c r="C14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" t="s" s="2">
-        <v>76</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>123</v>
+        <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
         <v>124</v>
@@ -2139,471 +2181,486 @@
       <c r="L14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" t="s" s="2">
+        <v>126</v>
+      </c>
       <c r="N14" s="2"/>
-      <c r="O14" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P14" s="2"/>
-      <c r="Q14" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="B15" s="2"/>
-      <c r="C15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D15" s="2"/>
-      <c r="E15" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>128</v>
+        <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
         <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>130</v>
+      </c>
       <c r="N15" s="2"/>
-      <c r="O15" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P15" s="2"/>
-      <c r="Q15" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>72</v>
+        <v>131</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK15" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="B16" s="2"/>
-      <c r="C16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D16" s="2"/>
-      <c r="E16" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>132</v>
+        <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
         <v>133</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M16" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="M16" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="N16" s="2"/>
-      <c r="O16" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P16" s="2"/>
-      <c r="Q16" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>134</v>
+        <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>72</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="B17" s="2"/>
-      <c r="C17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>136</v>
+        <v>99</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M17" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N17" s="2"/>
-      <c r="O17" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P17" s="2"/>
-      <c r="Q17" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="B18" s="2"/>
-      <c r="C18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="D18" s="2"/>
-      <c r="E18" t="s" s="2">
-        <v>72</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="M18" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="N18" s="2"/>
-      <c r="O18" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="P18" s="2"/>
-      <c r="Q18" t="s" s="2">
-        <v>71</v>
-      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>140</v>
+        <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>72</v>
+        <v>141</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="143">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-25T17:31:41+00:00</t>
+    <t>2023-01-10T10:46:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -238,6 +238,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t>Base</t>
@@ -940,7 +944,7 @@
         <v>72</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
@@ -997,7 +1001,7 @@
         <v>72</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>73</v>
@@ -1017,10 +1021,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1028,7 +1032,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>74</v>
@@ -1043,13 +1047,13 @@
         <v>72</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1100,10 +1104,10 @@
         <v>72</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1120,10 +1124,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1131,10 +1135,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>72</v>
@@ -1146,13 +1150,13 @@
         <v>72</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1203,13 +1207,13 @@
         <v>72</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>72</v>
@@ -1223,10 +1227,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -1234,7 +1238,7 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1249,13 +1253,13 @@
         <v>72</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s" s="2">
         <v>28</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
@@ -1306,10 +1310,10 @@
         <v>72</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>74</v>
@@ -1326,10 +1330,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1352,13 +1356,13 @@
         <v>72</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
@@ -1409,7 +1413,7 @@
         <v>72</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>73</v>
@@ -1429,10 +1433,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1440,7 +1444,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>74</v>
@@ -1455,13 +1459,13 @@
         <v>72</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1512,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
         <v>74</v>
@@ -1532,10 +1536,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1546,7 +1550,7 @@
         <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1558,13 +1562,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1615,13 +1619,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1635,10 +1639,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1661,13 +1665,13 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
@@ -1718,7 +1722,7 @@
         <v>72</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>73</v>
@@ -1738,10 +1742,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -1752,7 +1756,7 @@
         <v>73</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>72</v>
@@ -1764,13 +1768,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1821,13 +1825,13 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>72</v>
@@ -1841,10 +1845,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1855,7 +1859,7 @@
         <v>73</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>72</v>
@@ -1867,13 +1871,13 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -1924,13 +1928,13 @@
         <v>72</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>72</v>
@@ -1944,10 +1948,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -1955,10 +1959,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>72</v>
@@ -1970,13 +1974,13 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -2027,13 +2031,13 @@
         <v>72</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>72</v>
@@ -2047,10 +2051,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2061,7 +2065,7 @@
         <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2073,13 +2077,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2130,13 +2134,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2150,10 +2154,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2161,7 +2165,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2176,13 +2180,13 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2233,10 +2237,10 @@
         <v>72</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2253,10 +2257,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -2279,13 +2283,13 @@
         <v>72</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
@@ -2336,7 +2340,7 @@
         <v>72</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>73</v>
@@ -2356,10 +2360,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -2370,7 +2374,7 @@
         <v>73</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>72</v>
@@ -2382,13 +2386,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2439,13 +2443,13 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>72</v>
@@ -2459,10 +2463,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2473,7 +2477,7 @@
         <v>73</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>72</v>
@@ -2485,13 +2489,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2542,13 +2546,13 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>72</v>
@@ -2562,10 +2566,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2576,7 +2580,7 @@
         <v>73</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2588,13 +2592,13 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2645,13 +2649,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T10:46:51+00:00</t>
+    <t>2023-01-10T13:29:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-VerifiableCredentialBundle.xlsx
+++ b/StructureDefinition-VerifiableCredentialBundle.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="142">
   <si>
     <t>Property</t>
   </si>
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialBundle</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialBundle</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-10T13:29:07+00:00</t>
+    <t>2023-01-10T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -105,7 +105,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredential</t>
+    <t>http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialBase</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -263,7 +263,7 @@
     <t>Sets the context of the verifiable credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.context</t>
+    <t>VerifiableCredentialBase.context</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.id</t>
@@ -279,7 +279,7 @@
     <t>The value of the id property MUST be a single URI. It is RECOMMENDED that the URI in the id be one which, if dereferenced, results in a document containing machine-readable information about the id.</t>
   </si>
   <si>
-    <t>VerifiableCredential.id</t>
+    <t>VerifiableCredentialBase.id</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.type</t>
@@ -288,33 +288,20 @@
     <t>The value of the type property</t>
   </si>
   <si>
-    <t>VerifiableCredential.type</t>
+    <t>VerifiableCredentialBase.type</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.credentialStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialStatus
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialStatus
 </t>
   </si>
   <si>
     <t>Verifiable Credential Status</t>
   </si>
   <si>
-    <t>VerifiableCredential.credentialStatus</t>
-  </si>
-  <si>
-    <t>VerifiableCredentialBundle.credentialSubject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialSubject
-</t>
-  </si>
-  <si>
-    <t>Verifiable Credential Subject</t>
-  </si>
-  <si>
-    <t>VerifiableCredential.credentialSubject</t>
+    <t>VerifiableCredentialBase.credentialStatus</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.expirationDate</t>
@@ -330,13 +317,13 @@
     <t>The date and time the credential ceases to be valid.</t>
   </si>
   <si>
-    <t>VerifiableCredential.expirationDate</t>
+    <t>VerifiableCredentialBase.expirationDate</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.evidence</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialEvidence
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialEvidence
 </t>
   </si>
   <si>
@@ -346,7 +333,7 @@
     <t>Verifiable Credential Evidence</t>
   </si>
   <si>
-    <t>VerifiableCredential.evidence</t>
+    <t>VerifiableCredentialBase.evidence</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.holder</t>
@@ -358,7 +345,7 @@
     <t>The holder of the credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.holder</t>
+    <t>VerifiableCredentialBase.holder</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issued</t>
@@ -367,7 +354,7 @@
     <t>Issued</t>
   </si>
   <si>
-    <t>VerifiableCredential.issued</t>
+    <t>VerifiableCredentialBase.issued</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issuer</t>
@@ -379,7 +366,7 @@
     <t>The entity that issued the credential</t>
   </si>
   <si>
-    <t>VerifiableCredential.issuer</t>
+    <t>VerifiableCredentialBase.issuer</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.issuanceDate</t>
@@ -391,13 +378,13 @@
     <t>The date and time the credential becomes valid, which could be a date and time in the future. Note that this value represents the earliest point in time at which the information associated with the credentialSubject property becomes valid.</t>
   </si>
   <si>
-    <t>VerifiableCredential.issuanceDate</t>
+    <t>VerifiableCredentialBase.issuanceDate</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.proof</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialProof
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialProof
 </t>
   </si>
   <si>
@@ -407,33 +394,33 @@
     <t>One or more cryptographic proofs that can be used to detect tampering and verify the authorship</t>
   </si>
   <si>
-    <t>VerifiableCredential.proof</t>
+    <t>VerifiableCredentialBase.proof</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.refreshService</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialRefreshService
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialRefreshService
 </t>
   </si>
   <si>
     <t>Refresh Service</t>
   </si>
   <si>
-    <t>VerifiableCredential.refreshService</t>
+    <t>VerifiableCredentialBase.refreshService</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.termsofUse</t>
   </si>
   <si>
-    <t xml:space="preserve">http://litlfred.github.io/iv-vcs/StructureDefinition/VerifiableCredentialTermsOfUse
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialTermsOfUse
 </t>
   </si>
   <si>
     <t>Terms of Use</t>
   </si>
   <si>
-    <t>VerifiableCredential.termsofUse</t>
+    <t>VerifiableCredentialBase.termsofUse</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.validFrom</t>
@@ -442,7 +429,7 @@
     <t>Valid From</t>
   </si>
   <si>
-    <t>VerifiableCredential.validFrom</t>
+    <t>VerifiableCredentialBase.validFrom</t>
   </si>
   <si>
     <t>VerifiableCredentialBundle.validUntil</t>
@@ -451,7 +438,17 @@
     <t>Valid Until</t>
   </si>
   <si>
-    <t>VerifiableCredential.validUntil</t>
+    <t>VerifiableCredentialBase.validUntil</t>
+  </si>
+  <si>
+    <t>VerifiableCredentialBundle.credentialSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://litlfred.github.io/ig-vcs/StructureDefinition/VerifiableCredentialSubjectBundle
+</t>
+  </si>
+  <si>
+    <t>Verifiable Credential Subject</t>
   </si>
 </sst>
 </file>
@@ -775,7 +772,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.8984375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.98046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -796,7 +793,7 @@
     <col min="29" max="29" width="20.59375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="35.88671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="42.26953125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
@@ -1444,10 +1441,10 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>72</v>
@@ -1465,7 +1462,7 @@
         <v>97</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
@@ -1516,13 +1513,13 @@
         <v>72</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>72</v>
@@ -1536,10 +1533,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1550,7 +1547,7 @@
         <v>73</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>72</v>
@@ -1562,13 +1559,13 @@
         <v>72</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
@@ -1619,13 +1616,13 @@
         <v>72</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>73</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>72</v>
@@ -1639,10 +1636,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1653,7 +1650,7 @@
         <v>73</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H9" t="s" s="2">
         <v>72</v>
@@ -1665,7 +1662,7 @@
         <v>72</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>106</v>
@@ -1728,7 +1725,7 @@
         <v>73</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>72</v>
@@ -1768,13 +1765,13 @@
         <v>72</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="L10" t="s" s="2">
         <v>110</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
@@ -1825,7 +1822,7 @@
         <v>72</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>73</v>
@@ -1845,10 +1842,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -1856,7 +1853,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>78</v>
@@ -1871,10 +1868,10 @@
         <v>72</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="M11" t="s" s="2">
         <v>114</v>
@@ -1931,7 +1928,7 @@
         <v>115</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>78</v>
@@ -1959,7 +1956,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>78</v>
@@ -1974,7 +1971,7 @@
         <v>72</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>117</v>
@@ -2034,7 +2031,7 @@
         <v>119</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>78</v>
@@ -2062,10 +2059,10 @@
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>72</v>
@@ -2077,13 +2074,13 @@
         <v>72</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -2134,13 +2131,13 @@
         <v>72</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>72</v>
@@ -2154,10 +2151,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2165,7 +2162,7 @@
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
@@ -2180,10 +2177,10 @@
         <v>72</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M14" t="s" s="2">
         <v>127</v>
@@ -2240,7 +2237,7 @@
         <v>128</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
@@ -2271,7 +2268,7 @@
         <v>73</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>72</v>
@@ -2346,7 +2343,7 @@
         <v>73</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>72</v>
@@ -2386,13 +2383,13 @@
         <v>72</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -2443,7 +2440,7 @@
         <v>72</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>73</v>
@@ -2463,10 +2460,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -2489,13 +2486,13 @@
         <v>72</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -2546,7 +2543,7 @@
         <v>72</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>73</v>
@@ -2566,10 +2563,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2577,10 +2574,10 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>72</v>
@@ -2592,7 +2589,7 @@
         <v>72</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="L18" t="s" s="2">
         <v>141</v>
@@ -2649,13 +2646,13 @@
         <v>72</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>72</v>
